--- a/regionseng/3/industry/industry.xlsx
+++ b/regionseng/3/industry/industry.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27360" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,11 +58,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +106,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -142,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -160,6 +173,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -474,7 +496,7 @@
     <col min="1" max="1" width="68.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -489,7 +511,7 @@
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>2006</v>
@@ -536,8 +558,14 @@
       <c r="P2" s="9">
         <v>2020</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q2" s="9">
+        <v>2021</v>
+      </c>
+      <c r="R2" s="10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -586,8 +614,14 @@
       <c r="P3" s="4">
         <v>216.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q3" s="4">
+        <v>254.4</v>
+      </c>
+      <c r="R3" s="11">
+        <v>280.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -636,8 +670,14 @@
       <c r="P4" s="4">
         <v>214.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q4" s="4">
+        <v>250.9</v>
+      </c>
+      <c r="R4" s="11">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -686,8 +726,14 @@
       <c r="P5" s="5">
         <v>1803</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q5" s="5">
+        <v>2081</v>
+      </c>
+      <c r="R5" s="12">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
@@ -736,8 +782,14 @@
       <c r="P6" s="5">
         <v>1678</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q6" s="5">
+        <v>1854</v>
+      </c>
+      <c r="R6" s="12">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
@@ -786,8 +838,14 @@
       <c r="P7" s="4">
         <v>1043.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q7" s="4">
+        <v>976.7</v>
+      </c>
+      <c r="R7" s="11">
+        <v>1224.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -836,8 +894,14 @@
       <c r="P8" s="4">
         <v>161.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q8" s="4">
+        <v>163.80000000000001</v>
+      </c>
+      <c r="R8" s="11">
+        <v>192.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -886,8 +950,14 @@
       <c r="P9" s="4">
         <v>21.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q9" s="4">
+        <v>21.9</v>
+      </c>
+      <c r="R9" s="11">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -936,8 +1006,14 @@
       <c r="P10" s="4">
         <v>53.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q10" s="4">
+        <v>87.1</v>
+      </c>
+      <c r="R10" s="11">
+        <v>85.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -986,8 +1062,14 @@
       <c r="P11" s="4">
         <v>19.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q11" s="4">
+        <v>13.3</v>
+      </c>
+      <c r="R11" s="11">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
@@ -1036,10 +1118,16 @@
       <c r="P12" s="4">
         <v>168.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="Q12" s="4">
+        <v>176.6</v>
+      </c>
+      <c r="R12" s="11">
+        <v>179.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:18" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:18" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>1</v>
       </c>

--- a/regionseng/3/industry/industry.xlsx
+++ b/regionseng/3/industry/industry.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27360" windowHeight="11160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="11175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -487,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,7 +496,7 @@
     <col min="1" max="1" width="68.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -511,7 +511,7 @@
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>2006</v>
@@ -564,8 +564,11 @@
       <c r="R2" s="10">
         <v>2022</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="S2" s="10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -620,8 +623,11 @@
       <c r="R3" s="11">
         <v>280.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="S3" s="11">
+        <v>297.89999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -676,8 +682,11 @@
       <c r="R4" s="11">
         <v>278</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="S4" s="11">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -732,8 +741,11 @@
       <c r="R5" s="12">
         <v>1862</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="S5" s="12">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
@@ -788,8 +800,11 @@
       <c r="R6" s="12">
         <v>1748</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="S6" s="12">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
@@ -844,8 +859,11 @@
       <c r="R7" s="11">
         <v>1224.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="S7" s="11">
+        <v>1479.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -900,8 +918,11 @@
       <c r="R8" s="11">
         <v>192.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="S8" s="11">
+        <v>168.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -956,8 +977,11 @@
       <c r="R9" s="11">
         <v>25.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="S9" s="11">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -1012,8 +1036,11 @@
       <c r="R10" s="11">
         <v>85.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="S10" s="11">
+        <v>125.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -1068,8 +1095,11 @@
       <c r="R11" s="11">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="S11" s="11">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
@@ -1124,10 +1154,13 @@
       <c r="R12" s="11">
         <v>179.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:18" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:18" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="S12" s="11">
+        <v>169.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:19" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:19" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>1</v>
       </c>
